--- a/DATA_goal/Junction_Flooding_401.xlsx
+++ b/DATA_goal/Junction_Flooding_401.xlsx
@@ -446,8 +446,8 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -462,7 +462,7 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -655,103 +655,103 @@
         <v>44781.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.75</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="T2" s="4" t="n">
-        <v>7.84</v>
+        <v>78.41</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="H3" s="4" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AA3" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="I3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AB3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.5</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.44</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="L5" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>38.38</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_401.xlsx
+++ b/DATA_goal/Junction_Flooding_401.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.75694444445</v>
+        <v>45082.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.43</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>14.56</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.53</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.49</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.17</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.58</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.24</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.75</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.61</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.62</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.14</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.88</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.71</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>78.41</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>15.37</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.29</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.01</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.03</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.9</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.61</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.3</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.8</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.74</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.76388888889</v>
+        <v>45082.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.99</v>
+        <v>14.614</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.91</v>
+        <v>11.031</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.888</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.63</v>
+        <v>32.028</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.78</v>
+        <v>25.96</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.41</v>
+        <v>10.959</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.96</v>
+        <v>41.053</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.45</v>
+        <v>17.804</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.24</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.98</v>
+        <v>11.631</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.796</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.925</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.31</v>
+        <v>4.267</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.655</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.27</v>
+        <v>16.181</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.13</v>
+        <v>9.856999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.272</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.33</v>
+        <v>0.788</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9.92</v>
+        <v>170.062</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.46</v>
+        <v>32.52</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.758</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.92</v>
+        <v>21.503</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.6</v>
+        <v>11.804</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.34</v>
+        <v>1.558</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.74</v>
+        <v>21.894</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.7</v>
+        <v>9.202999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.41</v>
+        <v>8.739000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.93</v>
+        <v>10.362</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.76</v>
+        <v>14.152</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.5</v>
+        <v>37.737</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.97</v>
+        <v>6.411</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.95</v>
+        <v>13.147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.77083333334</v>
+        <v>45082.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.64</v>
+        <v>15.177</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.58</v>
+        <v>11.418</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.78</v>
+        <v>33.251</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.15</v>
+        <v>27.07</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.23</v>
+        <v>11.55</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.44</v>
+        <v>46.445</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.96</v>
+        <v>18.445</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.644</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.63</v>
+        <v>12.107</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.82</v>
+        <v>13.3</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.9</v>
+        <v>14.336</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.21</v>
+        <v>4.24</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.73</v>
+        <v>12.031</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.78</v>
+        <v>16.865</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.78</v>
+        <v>10.142</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.204</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.13</v>
+        <v>175.798</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.21</v>
+        <v>33.652</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.67</v>
+        <v>11.105</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.13</v>
+        <v>22.423</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.03</v>
+        <v>12.127</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.26</v>
+        <v>1.591</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.28</v>
+        <v>23.528</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.49</v>
+        <v>9.603</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.98</v>
+        <v>8.913</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.27</v>
+        <v>10.513</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.15</v>
+        <v>14.41</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.07</v>
+        <v>42.583</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.529</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.64</v>
+        <v>13.676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.77777777778</v>
+        <v>45082.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.59</v>
+        <v>4.65</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.77</v>
+        <v>3.5</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.34</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>10.33</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.47</v>
+        <v>8.19</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.61</v>
+        <v>3.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>19.03</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.5</v>
+        <v>5.68</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.29</v>
+        <v>2.9</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3</v>
+        <v>3.58</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.35</v>
+        <v>4.11</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.56</v>
+        <v>4.55</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.93</v>
+        <v>1.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.99</v>
+        <v>3.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.99</v>
+        <v>5.18</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.62</v>
+        <v>3.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.38</v>
+        <v>49.94</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.23</v>
+        <v>10.76</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.76</v>
+        <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.21</v>
+        <v>7.04</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.14</v>
+        <v>3.91</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.94</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.38</v>
+        <v>2.91</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.51</v>
+        <v>2.94</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.02</v>
+        <v>3.46</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.72</v>
+        <v>4.62</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.44</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.33</v>
+        <v>4.18</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_401.xlsx
+++ b/DATA_goal/Junction_Flooding_401.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45082.50694444445</v>
+        <v>44781.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.205</v>
+        <v>6.427</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.605</v>
+        <v>5.211</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.192</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>14.561</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.374</v>
+        <v>11.533</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.794</v>
+        <v>4.486</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.798</v>
+        <v>15.002</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.957000000000001</v>
+        <v>8.211</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.429</v>
+        <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.631</v>
+        <v>5.579</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.249</v>
+        <v>6.239</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.306</v>
+        <v>6.747</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.788</v>
+        <v>1.607</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.015</v>
+        <v>5.615</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.738</v>
+        <v>7.139</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.138</v>
+        <v>4.876</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.492</v>
+        <v>0.271</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.931</v>
+        <v>0.709</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>78.413</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.424</v>
+        <v>15.366</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.552</v>
+        <v>5.184</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.174</v>
+        <v>9.362</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.283</v>
+        <v>6.286</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.894</v>
+        <v>0.958</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.741</v>
+        <v>8.106999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.361</v>
+        <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.885</v>
+        <v>5.031</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>6.902</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.134</v>
+        <v>7.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.522</v>
+        <v>1.257</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>12.304</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.625</v>
+        <v>3.802</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.387</v>
+        <v>5.737</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45082.51388888889</v>
+        <v>44781.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.614</v>
+        <v>0.99</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.031</v>
+        <v>0.911</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.888</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>32.028</v>
+        <v>2.632</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.96</v>
+        <v>1.777</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.959</v>
+        <v>0.406</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>41.053</v>
+        <v>6.958</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>17.804</v>
+        <v>1.455</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.425000000000001</v>
+        <v>1.241</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.631</v>
+        <v>0.976</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.796</v>
+        <v>1.234</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.925</v>
+        <v>1.361</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.267</v>
+        <v>0.307</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.655</v>
+        <v>1.105</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.181</v>
+        <v>1.267</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.856999999999999</v>
+        <v>1.131</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.272</v>
+        <v>0.066</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.788</v>
+        <v>0.33</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>170.062</v>
+        <v>9.923</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>32.52</v>
+        <v>3.461</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.758</v>
+        <v>1.021</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>21.503</v>
+        <v>1.917</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.804</v>
+        <v>1.6</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.558</v>
+        <v>0.335</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>21.894</v>
+        <v>3.739</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.202999999999999</v>
+        <v>0.697</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.739000000000001</v>
+        <v>1.413</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.362</v>
+        <v>1.934</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.152</v>
+        <v>1.757</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.707</v>
+        <v>0.647</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>37.737</v>
+        <v>6.497</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.411</v>
+        <v>0.966</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.147</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45082.52083333334</v>
+        <v>44781.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.177</v>
+        <v>0.635</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.418</v>
+        <v>0.583</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>33.251</v>
+        <v>1.777</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27.07</v>
+        <v>1.154</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.55</v>
+        <v>0.225</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>46.445</v>
+        <v>4.441</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.445</v>
+        <v>0.962</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.644</v>
+        <v>0.844</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.107</v>
+        <v>0.63</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.3</v>
+        <v>0.824</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.336</v>
+        <v>0.902</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.24</v>
+        <v>0.206</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.031</v>
+        <v>0.729</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.865</v>
+        <v>0.782</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.142</v>
+        <v>0.78</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.204</v>
+        <v>0.032</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.229</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>175.798</v>
+        <v>4.127</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>33.652</v>
+        <v>2.207</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.105</v>
+        <v>0.674</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>22.423</v>
+        <v>1.133</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.127</v>
+        <v>1.028</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.591</v>
+        <v>0.263</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>23.528</v>
+        <v>2.278</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.603</v>
+        <v>0.492</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.913</v>
+        <v>0.979</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.513</v>
+        <v>1.275</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.41</v>
+        <v>1.152</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.461</v>
+        <v>0.435</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>42.583</v>
+        <v>4.068</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.529</v>
+        <v>0.635</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.676</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45082.52777777778</v>
+        <v>44781.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.65</v>
+        <v>3.587</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.5</v>
+        <v>2.772</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.078</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.33</v>
+        <v>8.144</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.19</v>
+        <v>6.469</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>2.605</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>9.795</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.288</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.346</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.986</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.986</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>38.384</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>8.225</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2.757</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>4.935</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.505</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>3.297</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.78471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="L6" s="4" t="n">
         <v>3.35</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>49.94</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>4.18</v>
+      <c r="M6" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>38.44</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.33</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_401.xlsx
+++ b/DATA_goal/Junction_Flooding_401.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.75694444445</v>
+        <v>45082.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.427</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.211</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>14.561</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.533</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.486</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15.002</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.211</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.17</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.579</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.239</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.747</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.607</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.615</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.139</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.876</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.271</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.709</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>78.413</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>15.366</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.184</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.362</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.286</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.958</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>8.106999999999999</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.01</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.031</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.902</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.612</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.257</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.304</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.802</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.737</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.76388888889</v>
+        <v>45082.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.99</v>
+        <v>14.614</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.911</v>
+        <v>11.031</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.888</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.632</v>
+        <v>32.028</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.777</v>
+        <v>25.96</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.406</v>
+        <v>10.959</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.958</v>
+        <v>41.053</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.455</v>
+        <v>17.804</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.241</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.976</v>
+        <v>11.631</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.234</v>
+        <v>12.796</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.361</v>
+        <v>13.925</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.307</v>
+        <v>4.267</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.105</v>
+        <v>11.655</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.267</v>
+        <v>16.181</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.131</v>
+        <v>9.856999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.066</v>
+        <v>0.272</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.33</v>
+        <v>0.788</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9.923</v>
+        <v>170.062</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.461</v>
+        <v>32.52</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.021</v>
+        <v>10.758</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.917</v>
+        <v>21.503</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.6</v>
+        <v>11.804</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.335</v>
+        <v>1.558</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.739</v>
+        <v>21.894</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.697</v>
+        <v>9.202999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.413</v>
+        <v>8.739000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.934</v>
+        <v>10.362</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.757</v>
+        <v>14.152</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.647</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.497</v>
+        <v>37.737</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.966</v>
+        <v>6.411</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.952</v>
+        <v>13.147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.77083333334</v>
+        <v>45082.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.635</v>
+        <v>15.177</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.583</v>
+        <v>11.418</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.777</v>
+        <v>33.251</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.154</v>
+        <v>27.07</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.225</v>
+        <v>11.55</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.441</v>
+        <v>46.445</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.962</v>
+        <v>18.445</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.844</v>
+        <v>8.644</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.63</v>
+        <v>12.107</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.824</v>
+        <v>13.3</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.902</v>
+        <v>14.336</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.206</v>
+        <v>4.24</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.729</v>
+        <v>12.031</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.782</v>
+        <v>16.865</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.78</v>
+        <v>10.142</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.032</v>
+        <v>0.204</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.229</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.127</v>
+        <v>175.798</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.207</v>
+        <v>33.652</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.674</v>
+        <v>11.105</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.133</v>
+        <v>22.423</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.028</v>
+        <v>12.127</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.263</v>
+        <v>1.591</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.278</v>
+        <v>23.528</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.492</v>
+        <v>9.603</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.979</v>
+        <v>8.913</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.275</v>
+        <v>10.513</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.152</v>
+        <v>14.41</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.435</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.068</v>
+        <v>42.583</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.635</v>
+        <v>6.529</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.638</v>
+        <v>13.676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.77777777778</v>
+        <v>45082.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.587</v>
+        <v>4.65</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.772</v>
+        <v>3.5</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.078</v>
+        <v>0.34</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.144</v>
+        <v>10.33</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.469</v>
+        <v>8.19</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.605</v>
+        <v>3.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>9.795</v>
+        <v>19.03</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.499</v>
+        <v>5.68</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.288</v>
+        <v>2.9</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3</v>
+        <v>3.58</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.346</v>
+        <v>4.11</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.558</v>
+        <v>4.55</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.9320000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.986</v>
+        <v>3.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.986</v>
+        <v>5.18</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.62</v>
+        <v>3.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.045</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.268</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.384</v>
+        <v>49.94</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.225</v>
+        <v>10.76</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.757</v>
+        <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.21</v>
+        <v>7.04</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.139</v>
+        <v>3.91</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.935</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.375</v>
+        <v>2.91</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.505</v>
+        <v>2.94</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.016</v>
+        <v>3.46</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.722</v>
+        <v>4.62</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.327</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.759</v>
+        <v>2.13</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.297</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.44</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.33</v>
+        <v>4.18</v>
       </c>
     </row>
   </sheetData>
